--- a/P5_02_plantests.xlsx
+++ b/P5_02_plantests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guermoon\Desktop\Triumph\2021\P5\P5_ORINOCO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EAEFDD-6D25-4F4A-8647-B4DACD5651AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA13563D-3DAA-4E05-AEEC-A743C8602252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,8 +769,8 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1028,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="8">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>31</v>
